--- a/leetcode/leetcode_other.xlsx
+++ b/leetcode/leetcode_other.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3520D8-C99B-4D2E-93E1-FA2DEB0B1529}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA07889-2632-4F22-AFE3-FFC07D548A6A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="10" r:id="rId1"/>
     <sheet name="15" sheetId="14" r:id="rId2"/>
+    <sheet name="341" sheetId="16" r:id="rId3"/>
+    <sheet name="412" sheetId="15" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="162">
   <si>
     <r>
       <t xml:space="preserve">class </t>
@@ -1369,13 +1371,1537 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/program-to-convert-array-to-list-in-java/</t>
+  </si>
+  <si>
+    <t>approach#1</t>
+  </si>
+  <si>
+    <t>//Runtime: 8 ms, faster than 59.87% of C++ online submissions for Fizz Buzz.</t>
+  </si>
+  <si>
+    <t>//Memory Usage: 9.7 MB, less than 100.00% of C++ online submissions for Fizz Buzz.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    vector&lt;string&gt; fizzBuzz(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>n) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        vector&lt;string&gt; ans(n);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ans.resize(n);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">cur = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(cur &lt;= n){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            ans[cur - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Fizz"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            cur += </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        cur = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(cur &lt;= n) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(ans[cur - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">].length() &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                ans[cur - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"FizzBuzz"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                ans[cur - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Buzz"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            cur += </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">i = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>; i&lt;n; i++) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(ans[i].length() == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                ans[i] = std::to_string(i+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ans;</t>
+    </r>
+  </si>
+  <si>
+    <t>//Runtime: 4 ms, faster than 96.71% of C++ online submissions for Fizz Buzz.</t>
+  </si>
+  <si>
+    <t>//Memory Usage: 9.6 MB, less than 100.00% of C++ online submissions for Fizz Buzz.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>j;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>i=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>; i&lt;=n; i++){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            j = i - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(i%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">== </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                ans[j].append(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Fizz"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(i%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">== </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                ans[j].append(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Buzz"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(ans[j].length() == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                ans[j].append(to_string(i));</t>
+  </si>
+  <si>
+    <t>赢在可维护性</t>
+  </si>
+  <si>
+    <t>412. Fizz Buzz</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/fizz-buzz/</t>
+  </si>
+  <si>
+    <t>341. Flatten Nested List Iterator</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/flatten-nested-list-iterator/</t>
+  </si>
+  <si>
+    <t>approach#</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>//Runtime: 2 ms, faster than 100.00% of Java online submissions for Flatten Nested List Iterator.</t>
+  </si>
+  <si>
+    <t>//        Memory Usage: 37.6 MB, less than 100.00% of Java online submissions for Flatten Nested List Iterator.</t>
+  </si>
+  <si>
+    <t>/**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * // This is the interface that allows for creating nested lists.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * // You should not implement it, or speculate about its implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * public interface NestedInteger {</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *     // @return true if this NestedInteger holds a single integer, rather than a nested list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *     public boolean isInteger();</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *     // @return the single integer that this NestedInteger holds, if it holds a single integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *     // Return null if this NestedInteger holds a nested list</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *     public Integer getInteger();</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *     // @return the nested list that this NestedInteger holds, if it holds a nested list</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *     // Return null if this NestedInteger holds a single integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *     public List&lt;NestedInteger&gt; getList();</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> */</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">NestedIterator </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">implements </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Iterator&lt;Integer&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    List&lt;Integer&gt; list;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>cur;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>NestedIterator(List&lt;NestedInteger&gt; nestedList) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        list = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ArrayList&lt;&gt;();</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        iterator(nestedList, list);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(list.size() == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>) cur = -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">else </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">cur = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    @Override</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Integer next() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(cur == -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>return null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>list.get(cur++);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public boolean </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>hasNext() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(cur == -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">1  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">|| cur &gt;=list.size() ) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>return false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>return true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>iterator(List&lt;NestedInteger&gt; nestedList, List&lt;Integer&gt; list){</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        NestedInteger cur;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>i=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>; i&lt;nestedList.size(); i++){</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            cur = nestedList.get(i);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(cur.isInteger()) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                list.add(cur.getInteger());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                iterator(cur.getList(), list);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Your NestedIterator object will be instantiated and called as such:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * NestedIterator i = new NestedIterator(nestedList);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * while (i.hasNext()) v[f()] = i.next();</t>
+  </si>
+  <si>
+    <t>考点：可维护性，不要太对if else</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1473,6 +2999,26 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF008000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1528,7 +3074,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1619,6 +3165,10 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1905,8 +3455,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1915,7 +3465,7 @@
     <col min="2" max="2" width="16.28515625" style="9" customWidth="1"/>
     <col min="3" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1955,11 +3505,18 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="25">
+        <v>412</v>
+      </c>
+      <c r="C3" s="10" t="str">
+        <f ca="1">INDIRECT(B3&amp;"!A1")</f>
+        <v>412. Fizz Buzz</v>
+      </c>
       <c r="D3" s="26"/>
       <c r="E3" s="27"/>
-      <c r="F3" s="28"/>
+      <c r="F3" s="28" t="s">
+        <v>161</v>
+      </c>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2088,8 +3645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8EB36E-1494-452A-8598-B82F10A5D5CA}">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2547,6 +4104,687 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965C94AC-2E88-400C-AC34-AFD3A59A2C84}">
+  <dimension ref="A1:G67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="132.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D33" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="4:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="D35" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D36" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D37" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D38" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D39" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D41" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D42" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D43" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D44" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D45" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D47" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D48" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3F611FE2-133E-4F50-A28D-53A9BB4E41A7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9B7F17-7EC0-4E7B-A343-95860B68AA23}">
+  <dimension ref="A1:F64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="98.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D37" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D38" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D40" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D41" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D43" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D44" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D45" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D46" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D47" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D48" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{6B979AC3-E581-4FBF-A011-FADEA0C8DFA7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
